--- a/Mng/Mdl_Ipvs.xlsx
+++ b/Mng/Mdl_Ipvs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/m_karampasis_uu_nl/Documents/WS_Mdl/Mng/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{5E3970D3-2CD9-4A5D-9889-3973511BE780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD5AB8F-5ABF-413C-B675-B1B083E63F2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD745F49-56FE-4B0D-9D3E-06D8F7B6DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294964216" uniqueCount="329">
   <si>
     <t>#</t>
   </si>
@@ -2398,9 +2398,6 @@
     <t>winter/summer can be loaded from PRJ, but when you try to make a sim</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Sim_MF6 = mf6.Modflow6Simulation.from_imod5_data(PRJ_regrid, period_data, times)</t>
   </si>
   <si>
@@ -2409,6 +2406,13 @@
     well_rate = well_rate.reset_index(drop=True)
 before     intermediate_df = pd.merge(... 
 C:\mamba_envs\WS\Lib\site-packages\imod\util\expnd_repetitions.py</t>
+  </si>
+  <si>
+    <t>idf_svat.inp made from imod python differs from imod5's. Same goes for other MSW files.</t>
+  </si>
+  <si>
+    <t>row1 col1 items present in MSW, unlike imod5.
+Also there are some duplicates, which I think are for places where there are 2 SVAT's per 1 MF cell. Those are present in the old file, but not the new one. But more investigation is necessary to be sure about what's going on.</t>
   </si>
 </sst>
 </file>
@@ -3902,9 +3906,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3943,6 +3944,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4086,7 +4090,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>45314</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>151528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4156,6 +4160,50 @@
         <a:xfrm>
           <a:off x="9705975" y="13354050"/>
           <a:ext cx="7685714" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>588328</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>18119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2339DCE-CEB9-F311-A56C-CFAFAD7CBC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="18497550"/>
+          <a:ext cx="17771428" cy="7447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5212,21 +5260,21 @@
       <c r="O11" s="181"/>
     </row>
     <row r="13" spans="1:15" s="193" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="259" t="s">
+      <c r="E13" s="258" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="258"/>
+      <c r="H13" s="258"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258"/>
       <c r="K13" s="194"/>
-      <c r="L13" s="258" t="s">
+      <c r="L13" s="257" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="258"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="258"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="257"/>
     </row>
     <row r="14" spans="1:15" s="145" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="175" t="s">
@@ -5406,50 +5454,50 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="265" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
       <c r="E6" s="211"/>
-      <c r="F6" s="268" t="s">
+      <c r="F6" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="267"/>
       <c r="K6" s="208"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="263" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
       <c r="E7" s="209"/>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="262" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="259" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="261"/>
+      <c r="C8" s="260"/>
       <c r="D8" s="225" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="210"/>
-      <c r="F8" s="262" t="s">
+      <c r="F8" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="262"/>
+      <c r="G8" s="261"/>
       <c r="H8" s="232" t="s">
         <v>275</v>
       </c>
@@ -6764,50 +6812,50 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="265" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
       <c r="E6" s="211"/>
-      <c r="F6" s="268" t="s">
+      <c r="F6" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="267"/>
       <c r="K6" s="208"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="263" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
       <c r="E7" s="209"/>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="262" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="268" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="270"/>
+      <c r="C8" s="269"/>
       <c r="D8" s="236" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="209"/>
-      <c r="F8" s="262" t="s">
+      <c r="F8" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="262"/>
+      <c r="G8" s="261"/>
       <c r="H8" s="232" t="s">
         <v>275</v>
       </c>
@@ -10611,10 +10659,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10740,16 +10788,28 @@
       <c r="A9" s="249">
         <v>7</v>
       </c>
+      <c r="B9" s="249">
+        <v>3</v>
+      </c>
       <c r="C9" s="144" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="144" t="s">
         <v>326</v>
       </c>
-      <c r="D9" s="144" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="249">
+        <v>8</v>
+      </c>
+      <c r="B10" s="249">
+        <v>4</v>
+      </c>
+      <c r="C10" s="270" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="257" t="s">
-        <v>325</v>
+      <c r="D10" s="270" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.25">
@@ -10760,6 +10820,11 @@
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="249">
         <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="249">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Mng/Mdl_Ipvs.xlsx
+++ b/Mng/Mdl_Ipvs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD745F49-56FE-4B0D-9D3E-06D8F7B6DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E7195C-042B-4DF1-BDEA-ACB69337B244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294964216" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="329">
   <si>
     <t>#</t>
   </si>

--- a/Mng/Mdl_Ipvs.xlsx
+++ b/Mng/Mdl_Ipvs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E7195C-042B-4DF1-BDEA-ACB69337B244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CED2FF-F48C-43E2-B4A9-E1386775A21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -344,6 +344,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={15A3FBC4-A992-4067-9625-E00477E89E54}</author>
     <author>tc={F47377D2-DB22-48BD-B267-D756470B10CD}</author>
     <author>tc={51021B21-D9BA-4A5A-A695-7311ED30D49C}</author>
     <author>tc={A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}</author>
@@ -364,7 +365,15 @@
     <author>tc={9C5A220C-E90B-473B-AA2E-8567CF5CDBDA}</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F47377D2-DB22-48BD-B267-D756470B10CD}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{15A3FBC4-A992-4067-9625-E00477E89E54}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only 1 SW calibration point was provided (close to the catchment outlet). It only contains data for 1990-2003, hence we need to confirm if the rest of the data is available for that period (to run a calibration Sim).</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{F47377D2-DB22-48BD-B267-D756470B10CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -372,7 +381,7 @@
     This means if the file references in some of the input files need to be extended.</t>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{51021B21-D9BA-4A5A-A695-7311ED30D49C}">
+    <comment ref="I2" authorId="2" shapeId="0" xr:uid="{51021B21-D9BA-4A5A-A695-7311ED30D49C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -382,7 +391,7 @@
     KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</t>
       </text>
     </comment>
-    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}">
+    <comment ref="I3" authorId="3" shapeId="0" xr:uid="{A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -392,7 +401,7 @@
     KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</t>
       </text>
     </comment>
-    <comment ref="B4" authorId="3" shapeId="0" xr:uid="{F4BD67AD-A2E6-4CEB-AD66-3C0C4ADD3B0B}">
+    <comment ref="C4" authorId="4" shapeId="0" xr:uid="{F4BD67AD-A2E6-4CEB-AD66-3C0C4ADD3B0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -400,7 +409,7 @@
     For each parameter</t>
       </text>
     </comment>
-    <comment ref="H4" authorId="4" shapeId="0" xr:uid="{DBB861FB-04E1-49BE-9EA5-2D89AF54F60D}">
+    <comment ref="I4" authorId="5" shapeId="0" xr:uid="{DBB861FB-04E1-49BE-9EA5-2D89AF54F60D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -410,7 +419,7 @@
     KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</t>
       </text>
     </comment>
-    <comment ref="D5" authorId="5" shapeId="0" xr:uid="{5B374DC3-3119-4E34-A91B-C83666A6DAEF}">
+    <comment ref="E5" authorId="6" shapeId="0" xr:uid="{5B374DC3-3119-4E34-A91B-C83666A6DAEF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -418,7 +427,7 @@
     All GWAbs of this group start on the same date, even if they're 0 for a long time.</t>
       </text>
     </comment>
-    <comment ref="E5" authorId="6" shapeId="0" xr:uid="{FDDC49D8-0FAA-45A7-BD57-1EECA209FBAA}">
+    <comment ref="F5" authorId="7" shapeId="0" xr:uid="{FDDC49D8-0FAA-45A7-BD57-1EECA209FBAA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -426,7 +435,7 @@
     Same end date for all.</t>
       </text>
     </comment>
-    <comment ref="F5" authorId="7" shapeId="0" xr:uid="{ED65844E-9A96-4AED-BAD8-3BA7AF601E65}">
+    <comment ref="G5" authorId="8" shapeId="0" xr:uid="{ED65844E-9A96-4AED-BAD8-3BA7AF601E65}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -434,7 +443,7 @@
     There is an extra data point for all.</t>
       </text>
     </comment>
-    <comment ref="H5" authorId="8" shapeId="0" xr:uid="{33FB2B50-261A-4BF3-8678-324B1DEC7969}">
+    <comment ref="I5" authorId="9" shapeId="0" xr:uid="{33FB2B50-261A-4BF3-8678-324B1DEC7969}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -442,7 +451,7 @@
     If we calibrate till 2018 (inc), then no. Otherwise, yes.</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="9" shapeId="0" xr:uid="{827DF360-A523-4B9C-96E3-B5AC17F6D9A1}">
+    <comment ref="E6" authorId="10" shapeId="0" xr:uid="{827DF360-A523-4B9C-96E3-B5AC17F6D9A1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -450,7 +459,7 @@
     For all.</t>
       </text>
     </comment>
-    <comment ref="E6" authorId="10" shapeId="0" xr:uid="{DDD1E8AA-5C68-4532-82E5-5BC228B92F0D}">
+    <comment ref="F6" authorId="11" shapeId="0" xr:uid="{DDD1E8AA-5C68-4532-82E5-5BC228B92F0D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -458,7 +467,7 @@
     For all.</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="11" shapeId="0" xr:uid="{B5497DBC-2982-4274-BA7F-A571FB0CE336}">
+    <comment ref="H6" authorId="12" shapeId="0" xr:uid="{B5497DBC-2982-4274-BA7F-A571FB0CE336}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -466,7 +475,7 @@
     Every Jan, Apr, Jul, Oct</t>
       </text>
     </comment>
-    <comment ref="H6" authorId="12" shapeId="0" xr:uid="{41904AF7-D965-42D9-968B-58AD8784C0A0}">
+    <comment ref="I6" authorId="13" shapeId="0" xr:uid="{41904AF7-D965-42D9-968B-58AD8784C0A0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -474,7 +483,7 @@
     2018 isn't included. Those are a bit number of GWAbs</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="13" shapeId="0" xr:uid="{1B728C18-2C64-4DB3-9078-5ADCAE1C8554}">
+    <comment ref="E7" authorId="14" shapeId="0" xr:uid="{1B728C18-2C64-4DB3-9078-5ADCAE1C8554}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -482,7 +491,7 @@
     Differs greatly. I opened some files. The first date ranged from 1961-1991.</t>
       </text>
     </comment>
-    <comment ref="E7" authorId="14" shapeId="0" xr:uid="{4D95EE53-CBFC-47B2-9A85-3526597EC627}">
+    <comment ref="F7" authorId="15" shapeId="0" xr:uid="{4D95EE53-CBFC-47B2-9A85-3526597EC627}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -490,7 +499,7 @@
     Generally Apr 2020. But there are a lot of GWAbs that seem to have stopped earlier (which makes sense).</t>
       </text>
     </comment>
-    <comment ref="H7" authorId="15" shapeId="0" xr:uid="{5E7105F8-E6CE-4CCF-BB41-A387CD559E07}">
+    <comment ref="I7" authorId="16" shapeId="0" xr:uid="{5E7105F8-E6CE-4CCF-BB41-A387CD559E07}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -500,7 +509,7 @@
     KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</t>
       </text>
     </comment>
-    <comment ref="G8" authorId="16" shapeId="0" xr:uid="{540140F6-E2FF-4747-A19D-7CEB6998D145}">
+    <comment ref="H8" authorId="17" shapeId="0" xr:uid="{540140F6-E2FF-4747-A19D-7CEB6998D145}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -508,7 +517,7 @@
     Every 14th and 28th</t>
       </text>
     </comment>
-    <comment ref="H8" authorId="17" shapeId="0" xr:uid="{9C5A220C-E90B-473B-AA2E-8567CF5CDBDA}">
+    <comment ref="I8" authorId="18" shapeId="0" xr:uid="{9C5A220C-E90B-473B-AA2E-8567CF5CDBDA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -595,9 +604,10 @@
   <authors>
     <author>tc={E42EC14D-BD5A-400D-A934-346EA61A0CA2}</author>
     <author>tc={928E89C2-6353-4AC6-8BD4-DDDAB50745FF}</author>
+    <author>tc={DD19058C-7AB4-4B1B-BE0E-7E22DF8FC0CA}</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{E42EC14D-BD5A-400D-A934-346EA61A0CA2}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{E42EC14D-BD5A-400D-A934-346EA61A0CA2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -605,12 +615,21 @@
     Check source code for more.</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{928E89C2-6353-4AC6-8BD4-DDDAB50745FF}">
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{928E89C2-6353-4AC6-8BD4-DDDAB50745FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Not important in my case as I go for full transient.</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="2" shapeId="0" xr:uid="{DD19058C-7AB4-4B1B-BE0E-7E22DF8FC0CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Seems like some input files are missing and there are small differences in others.
+The former is most likely related to the execution errors.</t>
       </text>
     </comment>
   </commentList>
@@ -673,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="337">
   <si>
     <t>#</t>
   </si>
@@ -2414,6 +2433,33 @@
     <t>row1 col1 items present in MSW, unlike imod5.
 Also there are some duplicates, which I think are for places where there are 2 SVAT's per 1 MF cell. Those are present in the old file, but not the new one. But more investigation is necessary to be sure about what's going on.</t>
   </si>
+  <si>
+    <t>Available for 1990-2003?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>1993-2003</t>
+  </si>
+  <si>
+    <t>metamod.write()'s para_sim.inp</t>
+  </si>
+  <si>
+    <t>Date Registered</t>
+  </si>
+  <si>
+    <t>Main problem</t>
+  </si>
+  <si>
+    <t>imod python run giving errors on execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some parameters are missing. Check:
+C:\OD\WS_Mdl\code\Jupyter\explore\para_sim_comparisson\compare_para_sim.ipynb
+for more details. Although the image should be sufficient.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -2422,7 +2468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2577,6 +2623,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3200,7 +3252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3906,6 +3958,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3945,7 +4000,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3995,8 +4053,8 @@
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287092</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48967</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>98846</xdr:rowOff>
     </xdr:to>
@@ -4038,15 +4096,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>254606</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>179964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4082,15 +4140,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>7895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>45314</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>151528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4126,15 +4184,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>256214</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>113833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4170,15 +4228,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>588328</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>18119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4204,6 +4262,49 @@
         <a:xfrm>
           <a:off x="9705975" y="18497550"/>
           <a:ext cx="17771428" cy="7447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>456130</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF70A18-82F1-4948-7B7B-7218120FEBC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect b="8380"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="26127076"/>
+          <a:ext cx="7876105" cy="8420100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4655,70 +4756,73 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J1" dT="2025-02-17T08:37:58.38" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{F47377D2-DB22-48BD-B267-D756470B10CD}">
+  <threadedComment ref="B1" dT="2025-09-02T09:55:41.64" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{15A3FBC4-A992-4067-9625-E00477E89E54}">
+    <text>Only 1 SW calibration point was provided (close to the catchment outlet). It only contains data for 1990-2003, hence we need to confirm if the rest of the data is available for that period (to run a calibration Sim).</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-02-17T08:37:58.38" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{F47377D2-DB22-48BD-B267-D756470B10CD}">
     <text>This means if the file references in some of the input files need to be extended.</text>
   </threadedComment>
-  <threadedComment ref="H2" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{51021B21-D9BA-4A5A-A695-7311ED30D49C}">
+  <threadedComment ref="I2" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{51021B21-D9BA-4A5A-A695-7311ED30D49C}">
     <text>Depends on when the KNMI TS start</text>
   </threadedComment>
-  <threadedComment ref="H2" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{AC27715B-5465-47CE-AE10-1DE89CF267DE}" parentId="{51021B21-D9BA-4A5A-A695-7311ED30D49C}">
+  <threadedComment ref="I2" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{AC27715B-5465-47CE-AE10-1DE89CF267DE}" parentId="{51021B21-D9BA-4A5A-A695-7311ED30D49C}">
     <text>KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</text>
   </threadedComment>
-  <threadedComment ref="H3" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}">
+  <threadedComment ref="I3" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}">
     <text>Depends on when the KNMI TS start</text>
   </threadedComment>
-  <threadedComment ref="H3" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{C1165B2F-8369-4749-9643-6F6B46F7FA40}" parentId="{A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}">
+  <threadedComment ref="I3" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{C1165B2F-8369-4749-9643-6F6B46F7FA40}" parentId="{A0D4D92F-F97F-4E4D-9E2D-7CECE4E5B881}">
     <text>KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</text>
   </threadedComment>
-  <threadedComment ref="B4" dT="2025-02-07T15:52:34.17" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{F4BD67AD-A2E6-4CEB-AD66-3C0C4ADD3B0B}">
+  <threadedComment ref="C4" dT="2025-02-07T15:52:34.17" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{F4BD67AD-A2E6-4CEB-AD66-3C0C4ADD3B0B}">
     <text>For each parameter</text>
   </threadedComment>
-  <threadedComment ref="H4" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{DBB861FB-04E1-49BE-9EA5-2D89AF54F60D}">
+  <threadedComment ref="I4" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{DBB861FB-04E1-49BE-9EA5-2D89AF54F60D}">
     <text>Depends on when the KNMI TS start</text>
   </threadedComment>
-  <threadedComment ref="H4" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{2712474B-80D1-41CA-960C-F6B806384997}" parentId="{DBB861FB-04E1-49BE-9EA5-2D89AF54F60D}">
+  <threadedComment ref="I4" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{2712474B-80D1-41CA-960C-F6B806384997}" parentId="{DBB861FB-04E1-49BE-9EA5-2D89AF54F60D}">
     <text>KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</text>
   </threadedComment>
-  <threadedComment ref="D5" dT="2025-02-07T15:34:48.07" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{5B374DC3-3119-4E34-A91B-C83666A6DAEF}">
+  <threadedComment ref="E5" dT="2025-02-07T15:34:48.07" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{5B374DC3-3119-4E34-A91B-C83666A6DAEF}">
     <text>All GWAbs of this group start on the same date, even if they're 0 for a long time.</text>
   </threadedComment>
-  <threadedComment ref="E5" dT="2025-02-07T15:36:12.62" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{FDDC49D8-0FAA-45A7-BD57-1EECA209FBAA}">
+  <threadedComment ref="F5" dT="2025-02-07T15:36:12.62" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{FDDC49D8-0FAA-45A7-BD57-1EECA209FBAA}">
     <text>Same end date for all.</text>
   </threadedComment>
-  <threadedComment ref="F5" dT="2025-02-07T15:36:24.70" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{ED65844E-9A96-4AED-BAD8-3BA7AF601E65}">
+  <threadedComment ref="G5" dT="2025-02-07T15:36:24.70" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{ED65844E-9A96-4AED-BAD8-3BA7AF601E65}">
     <text>There is an extra data point for all.</text>
   </threadedComment>
-  <threadedComment ref="H5" dT="2025-02-07T15:38:12.52" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{33FB2B50-261A-4BF3-8678-324B1DEC7969}">
+  <threadedComment ref="I5" dT="2025-02-07T15:38:12.52" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{33FB2B50-261A-4BF3-8678-324B1DEC7969}">
     <text>If we calibrate till 2018 (inc), then no. Otherwise, yes.</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2025-02-07T15:39:30.81" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{827DF360-A523-4B9C-96E3-B5AC17F6D9A1}">
+  <threadedComment ref="E6" dT="2025-02-07T15:39:30.81" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{827DF360-A523-4B9C-96E3-B5AC17F6D9A1}">
     <text>For all.</text>
   </threadedComment>
-  <threadedComment ref="E6" dT="2025-02-07T15:39:44.26" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{DDD1E8AA-5C68-4532-82E5-5BC228B92F0D}">
+  <threadedComment ref="F6" dT="2025-02-07T15:39:44.26" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{DDD1E8AA-5C68-4532-82E5-5BC228B92F0D}">
     <text>For all.</text>
   </threadedComment>
-  <threadedComment ref="G6" dT="2025-02-07T15:23:14.47" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{B5497DBC-2982-4274-BA7F-A571FB0CE336}">
+  <threadedComment ref="H6" dT="2025-02-07T15:23:14.47" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{B5497DBC-2982-4274-BA7F-A571FB0CE336}">
     <text>Every Jan, Apr, Jul, Oct</text>
   </threadedComment>
-  <threadedComment ref="H6" dT="2025-02-07T15:40:16.35" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{41904AF7-D965-42D9-968B-58AD8784C0A0}">
+  <threadedComment ref="I6" dT="2025-02-07T15:40:16.35" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{41904AF7-D965-42D9-968B-58AD8784C0A0}">
     <text>2018 isn't included. Those are a bit number of GWAbs</text>
   </threadedComment>
-  <threadedComment ref="D7" dT="2025-02-07T15:30:52.69" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{1B728C18-2C64-4DB3-9078-5ADCAE1C8554}">
+  <threadedComment ref="E7" dT="2025-02-07T15:30:52.69" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{1B728C18-2C64-4DB3-9078-5ADCAE1C8554}">
     <text>Differs greatly. I opened some files. The first date ranged from 1961-1991.</text>
   </threadedComment>
-  <threadedComment ref="E7" dT="2025-02-07T15:31:50.01" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{4D95EE53-CBFC-47B2-9A85-3526597EC627}">
+  <threadedComment ref="F7" dT="2025-02-07T15:31:50.01" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{4D95EE53-CBFC-47B2-9A85-3526597EC627}">
     <text>Generally Apr 2020. But there are a lot of GWAbs that seem to have stopped earlier (which makes sense).</text>
   </threadedComment>
-  <threadedComment ref="H7" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{5E7105F8-E6CE-4CCF-BB41-A387CD559E07}">
+  <threadedComment ref="I7" dT="2024-12-13T13:22:33.04" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{5E7105F8-E6CE-4CCF-BB41-A387CD559E07}">
     <text>Depends on when the KNMI TS start</text>
   </threadedComment>
-  <threadedComment ref="H7" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{E368E679-5A09-40D2-9916-9AD8DDB5EA41}" parentId="{5E7105F8-E6CE-4CCF-BB41-A387CD559E07}">
+  <threadedComment ref="I7" dT="2025-02-07T14:48:10.72" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{E368E679-5A09-40D2-9916-9AD8DDB5EA41}" parentId="{5E7105F8-E6CE-4CCF-BB41-A387CD559E07}">
     <text>KNMI TS start at 2036, so there is no way to achieve continuity. Thus, the primary factor for choosing the latest date of extend is the rest of the TS files/types (e.g. if it's really hard to get accurate WEL data for the present, then we'll stick to whatever is already available.</text>
   </threadedComment>
-  <threadedComment ref="G8" dT="2025-02-07T15:50:36.32" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{540140F6-E2FF-4747-A19D-7CEB6998D145}">
+  <threadedComment ref="H8" dT="2025-02-07T15:50:36.32" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{540140F6-E2FF-4747-A19D-7CEB6998D145}">
     <text>Every 14th and 28th</text>
   </threadedComment>
-  <threadedComment ref="H8" dT="2025-02-07T15:38:12.52" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{9C5A220C-E90B-473B-AA2E-8567CF5CDBDA}">
+  <threadedComment ref="I8" dT="2025-02-07T15:38:12.52" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{9C5A220C-E90B-473B-AA2E-8567CF5CDBDA}">
     <text>If we calibrate till 2018 (inc), then no. Otherwise, yes.</text>
   </threadedComment>
 </ThreadedComments>
@@ -4766,11 +4870,15 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D3" dT="2025-07-15T09:17:30.76" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{E42EC14D-BD5A-400D-A934-346EA61A0CA2}">
+  <threadedComment ref="F3" dT="2025-07-15T09:17:30.76" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{E42EC14D-BD5A-400D-A934-346EA61A0CA2}">
     <text>Check source code for more.</text>
   </threadedComment>
-  <threadedComment ref="D7" dT="2025-07-25T10:06:37.84" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{928E89C2-6353-4AC6-8BD4-DDDAB50745FF}">
+  <threadedComment ref="F7" dT="2025-07-25T10:06:37.84" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{928E89C2-6353-4AC6-8BD4-DDDAB50745FF}">
     <text>Not important in my case as I go for full transient.</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2025-09-03T11:50:11.15" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{DD19058C-7AB4-4B1B-BE0E-7E22DF8FC0CA}">
+    <text>Seems like some input files are missing and there are small differences in others.
+The former is most likely related to the execution errors.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5260,21 +5368,21 @@
       <c r="O11" s="181"/>
     </row>
     <row r="13" spans="1:15" s="193" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="258" t="s">
+      <c r="E13" s="259" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="258"/>
-      <c r="G13" s="258"/>
-      <c r="H13" s="258"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="258"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
       <c r="K13" s="194"/>
-      <c r="L13" s="257" t="s">
+      <c r="L13" s="258" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="257"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
     </row>
     <row r="14" spans="1:15" s="145" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="175" t="s">
@@ -5454,50 +5562,50 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="266" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
       <c r="E6" s="211"/>
-      <c r="F6" s="267" t="s">
+      <c r="F6" s="268" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="267"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
       <c r="K6" s="208"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="264" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
       <c r="E7" s="209"/>
-      <c r="F7" s="262" t="s">
+      <c r="F7" s="263" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="262"/>
-      <c r="J7" s="262"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="260" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="260"/>
+      <c r="C8" s="261"/>
       <c r="D8" s="225" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="210"/>
-      <c r="F8" s="261" t="s">
+      <c r="F8" s="262" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="261"/>
+      <c r="G8" s="262"/>
       <c r="H8" s="232" t="s">
         <v>275</v>
       </c>
@@ -6812,50 +6920,50 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="266" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="267"/>
       <c r="E6" s="211"/>
-      <c r="F6" s="267" t="s">
+      <c r="F6" s="268" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="267"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
       <c r="K6" s="208"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="264" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
       <c r="E7" s="209"/>
-      <c r="F7" s="262" t="s">
+      <c r="F7" s="263" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="262"/>
-      <c r="J7" s="262"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="269" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="269"/>
+      <c r="C8" s="270"/>
       <c r="D8" s="236" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="209"/>
-      <c r="F8" s="261" t="s">
+      <c r="F8" s="262" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="261"/>
+      <c r="G8" s="262"/>
       <c r="H8" s="232" t="s">
         <v>275</v>
       </c>
@@ -9679,256 +9787,277 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H9" sqref="H9"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="150.7109375" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="7" width="11.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="74" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="74" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="D1" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="I1" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="J1" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="K1" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="L1" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="M1" s="75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="76">
+      <c r="E2" s="76">
         <v>29221</v>
       </c>
-      <c r="E2" s="76">
+      <c r="F2" s="76">
         <v>44109</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>218</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="76">
+      <c r="E3" s="76">
         <v>29221</v>
       </c>
-      <c r="E3" s="76">
+      <c r="F3" s="76">
         <v>44109</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="H3" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>218</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>211</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>4749</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="76">
+      <c r="E4" s="76">
         <v>39083</v>
       </c>
-      <c r="E4" s="76">
+      <c r="F4" s="76">
         <v>43831</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="H4" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="76">
+      <c r="E5" s="76">
         <v>27760</v>
       </c>
-      <c r="E5" s="76">
+      <c r="F5" s="76">
         <v>43101</v>
       </c>
-      <c r="F5" s="76">
+      <c r="G5" s="76">
         <v>46023</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="H5" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="I5" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>204</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>206</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6">
         <v>860</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="76">
+      <c r="E6" s="76">
         <v>34335</v>
       </c>
-      <c r="E6" s="76">
+      <c r="F6" s="76">
         <v>42736</v>
       </c>
-      <c r="F6" s="76">
+      <c r="G6" s="76">
         <v>45658</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="H6" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="I6" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>204</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7">
         <v>826</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="76">
+      <c r="E7" s="76">
         <v>27760</v>
       </c>
-      <c r="E7" s="76">
+      <c r="F7" s="76">
         <v>43951</v>
       </c>
-      <c r="F7" s="76">
+      <c r="G7" s="76">
         <v>46023</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="H7" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>218</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>214</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8">
         <v>11656</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="76">
+      <c r="E8" s="76">
         <v>33970</v>
       </c>
-      <c r="E8" s="76">
+      <c r="F8" s="76">
         <v>43462</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="H8" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="I8" s="76" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K5 L5 K8:K31 K6:L7">
+  <conditionalFormatting sqref="L2:L5 M5 L8:L31 L6:M7">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF(OR(K2="Yes",D2=""),FALSE, TRUE)</formula>
+      <formula>IF(OR(L2="Yes",E2=""),FALSE, TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I31">
+  <conditionalFormatting sqref="J2:J31">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>IF(OR(I2="Yes",A2=""),FALSE, TRUE)</formula>
+      <formula>IF(OR(J2="Yes",A2=""),FALSE, TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10659,172 +10788,211 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="249" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="249" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="249" customWidth="1"/>
-    <col min="4" max="4" width="76.5703125" style="144" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="249"/>
-    <col min="7" max="7" width="10.85546875" style="249" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="249"/>
+    <col min="2" max="3" width="7.85546875" style="249" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="249" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="249" customWidth="1"/>
+    <col min="6" max="6" width="76.5703125" style="144" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="249"/>
+    <col min="9" max="9" width="10.85546875" style="249" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="249"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="252"/>
       <c r="B1" s="252"/>
-      <c r="C1" s="253" t="s">
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="253" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="F1" s="249" t="s">
+      <c r="F1" s="254"/>
+      <c r="H1" s="249" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="144" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="255" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="255" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="256" t="s">
+      <c r="C2" s="255" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="255" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="256" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="256" t="s">
+      <c r="F2" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="H2" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="144" t="s">
+      <c r="I2" s="144" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="250">
         <v>1</v>
       </c>
       <c r="B3" s="250"/>
-      <c r="C3" s="250" t="s">
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="251" t="s">
+      <c r="F3" s="251" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="249">
+      <c r="H3" s="249">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="250">
         <v>2</v>
       </c>
       <c r="B4" s="250"/>
-      <c r="C4" s="250" t="s">
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="F4" s="251" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="249">
         <v>3</v>
       </c>
       <c r="B5" s="249">
         <v>1</v>
       </c>
-      <c r="C5" s="249" t="s">
+      <c r="E5" s="249" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="F5" s="144" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="249">
         <v>4</v>
       </c>
       <c r="B6" s="249">
         <v>2</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="E6" s="249" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="F6" s="144" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="249">
         <v>5</v>
       </c>
-      <c r="C7" s="249" t="s">
+      <c r="E7" s="249" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="F7" s="144" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="249">
         <v>6</v>
       </c>
-      <c r="C8" s="249" t="s">
+      <c r="E8" s="249" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="F8" s="144" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="249">
         <v>7</v>
       </c>
       <c r="B9" s="249">
         <v>3</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="E9" s="144" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="F9" s="144" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="249">
         <v>8</v>
       </c>
       <c r="B10" s="249">
         <v>4</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="E10" s="257" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="270" t="s">
+      <c r="F10" s="257" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="249">
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="249">
+        <v>9</v>
+      </c>
+      <c r="B11" s="249">
+        <v>5</v>
+      </c>
+      <c r="C11" s="271">
+        <v>45903</v>
+      </c>
+      <c r="D11" s="272" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="249" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="144" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="249">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68" s="249">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="249">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="249">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="249">
         <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="249">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Mng/Mdl_Ipvs.xlsx
+++ b/Mng/Mdl_Ipvs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CED2FF-F48C-43E2-B4A9-E1386775A21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B8A36B-7E4E-4DFD-8B3C-A47EC70D6921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-1005" windowWidth="16470" windowHeight="28350" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="SFR_Shp_eval" sheetId="14" r:id="rId8"/>
     <sheet name="iMOD_bugs" sheetId="10" r:id="rId9"/>
     <sheet name="RscEst" sheetId="11" r:id="rId10"/>
-    <sheet name="SFR_extra_system_error" sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="SFR_extra_system_error (2)" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="NBr32vsNBr30" sheetId="15" r:id="rId11"/>
+    <sheet name="SFR_extra_system_error" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="SFR_extra_system_error (2)" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NBr!$A$1:$O$15</definedName>
@@ -691,8 +692,28 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DC210B9A-F993-4F7A-968A-94F009095B82}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DC210B9A-F993-4F7A-968A-94F009095B82}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    P0: Probably 0 (Effect on calcs/results)
+0: (Definitely) 0
+S: Small</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966283" uniqueCount="368">
   <si>
     <t>#</t>
   </si>
@@ -2459,6 +2480,101 @@
 C:\OD\WS_Mdl\code\Jupyter\explore\para_sim_comparisson\compare_para_sim.ipynb
 for more details. Although the image should be sufficient.
 </t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>MF6.5 Vs MF6.4.2</t>
+  </si>
+  <si>
+    <t>Reads TDIS first, then model.</t>
+  </si>
+  <si>
+    <t>Mdl.NAM file specified as GWF6 vs NAM</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>mfsim.lst</t>
+  </si>
+  <si>
+    <t>HFB removed (it was empty before)</t>
+  </si>
+  <si>
+    <t>3 DRN systems vs 1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>No outer/inner solution output files</t>
+  </si>
+  <si>
+    <t>Those are output related to convergence. They can probably be "requested" with imod python too, I just haven't done that.</t>
+  </si>
+  <si>
+    <t>Solver options set differently</t>
+  </si>
+  <si>
+    <t>MAXIMUM NUMBER OF OUTER ITERATIONS and other o</t>
+  </si>
+  <si>
+    <t>mfsim.lst CONCLUSION</t>
+  </si>
+  <si>
+    <t>Similar convergence (could get even closer with identical solver settings).
+Similar execution time.
+NOTHING (in the mfsim.nam) file seems off.</t>
+  </si>
+  <si>
+    <t>Mdl.lst</t>
+  </si>
+  <si>
+    <t>Few more active nodes</t>
+  </si>
+  <si>
+    <t>Less than 0.04% difference</t>
+  </si>
+  <si>
+    <t>different WEL MAXBOUND, DIMENSIONS</t>
+  </si>
+  <si>
+    <t>A lot bigger for both</t>
+  </si>
+  <si>
+    <t>Need to double check, the order is different.</t>
+  </si>
+  <si>
+    <t>PACKAGE DIMENSIONS might differ</t>
+  </si>
+  <si>
+    <t>No HFB</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Specific STO differes for some Ls</t>
+  </si>
+  <si>
+    <t>I think it's Ls that are completely inactive.</t>
+  </si>
+  <si>
+    <t>No OBS</t>
+  </si>
+  <si>
+    <t>I can add those later</t>
+  </si>
+  <si>
+    <t>Mdl.lst CONCLUSION</t>
   </si>
 </sst>
 </file>
@@ -3252,7 +3368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3961,6 +4077,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4000,10 +4122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4904,6 +5023,16 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2025-09-10T08:55:45.40" personId="{03CB0575-C3E6-4F90-B161-647A816C1753}" id="{DC210B9A-F993-4F7A-968A-94F009095B82}">
+    <text>P0: Probably 0 (Effect on calcs/results)
+0: (Definitely) 0
+S: Small</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C4D60B-C912-4DC1-A87D-73F82C7BA5BB}">
   <dimension ref="A1:A3"/>
@@ -5368,21 +5497,21 @@
       <c r="O11" s="181"/>
     </row>
     <row r="13" spans="1:15" s="193" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="259" t="s">
+      <c r="E13" s="261" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
       <c r="K13" s="194"/>
-      <c r="L13" s="258" t="s">
+      <c r="L13" s="260" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="258"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="258"/>
+      <c r="M13" s="260"/>
+      <c r="N13" s="260"/>
+      <c r="O13" s="260"/>
     </row>
     <row r="14" spans="1:15" s="145" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="175" t="s">
@@ -5497,6 +5626,330 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF05D7E-2838-4142-AA8D-5560C72C00CE}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="144">
+        <v>1</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="144">
+        <v>2</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="144">
+        <v>3</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="144">
+        <v>4</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="144">
+        <v>5</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="144">
+        <v>6</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="144">
+        <v>7</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="144" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="273">
+        <v>8</v>
+      </c>
+      <c r="B9" s="273" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="273" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="273" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="273" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="144">
+        <v>9</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="144" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="144">
+        <v>10</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="144" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="144">
+        <v>11</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="144">
+        <v>12</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="144" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="144">
+        <v>13</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="144" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="144">
+        <v>14</v>
+      </c>
+      <c r="B15" s="144" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="144" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="144" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="273">
+        <v>15</v>
+      </c>
+      <c r="B16" s="273" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="273" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="273"/>
+      <c r="E16" s="273" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="144">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="144">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="144">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="144">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="144">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="144">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCE914-8602-4EEE-A6E1-FD0A87000ADB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -5562,50 +6015,50 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="268" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
       <c r="E6" s="211"/>
-      <c r="F6" s="268" t="s">
+      <c r="F6" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
       <c r="K6" s="208"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="266" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
       <c r="E7" s="209"/>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="265" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="260" t="s">
+      <c r="B8" s="262" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="261"/>
+      <c r="C8" s="263"/>
       <c r="D8" s="225" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="210"/>
-      <c r="F8" s="262" t="s">
+      <c r="F8" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="262"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="232" t="s">
         <v>275</v>
       </c>
@@ -6854,7 +7307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74858FD0-D098-40CA-826E-11B5DFE4D6A4}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -6920,50 +7373,50 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="268" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="267"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
       <c r="E6" s="211"/>
-      <c r="F6" s="268" t="s">
+      <c r="F6" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
       <c r="K6" s="208"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="266" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
       <c r="E7" s="209"/>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="265" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:11" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="271" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="270"/>
+      <c r="C8" s="272"/>
       <c r="D8" s="236" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="209"/>
-      <c r="F8" s="262" t="s">
+      <c r="F8" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="262"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="232" t="s">
         <v>275</v>
       </c>
@@ -10790,7 +11243,7 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -10962,10 +11415,10 @@
       <c r="B11" s="249">
         <v>5</v>
       </c>
-      <c r="C11" s="271">
+      <c r="C11" s="258">
         <v>45903</v>
       </c>
-      <c r="D11" s="272" t="s">
+      <c r="D11" s="259" t="s">
         <v>335</v>
       </c>
       <c r="E11" s="249" t="s">
